--- a/extra-files/headers.xlsx
+++ b/extra-files/headers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -31,25 +31,46 @@
     <t>device</t>
   </si>
   <si>
+    <t>glinet-microuter-n300</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ramips</t>
+  </si>
+  <si>
+    <t>mt76x8</t>
+  </si>
+  <si>
+    <t>glinet_microuter-n300</t>
+  </si>
+  <si>
     <t>glinet-mt300n-v2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ramips</t>
-  </si>
-  <si>
-    <t>mt76x8</t>
-  </si>
-  <si>
     <t>glinet_gl-mt300n-v2</t>
   </si>
   <si>
-    <t>glinet-microuter-n300</t>
-  </si>
-  <si>
-    <t>glinet_microuter-n300</t>
+    <t>miwifi-mini</t>
+  </si>
+  <si>
+    <t>mt7620</t>
+  </si>
+  <si>
+    <t>xiaomi_miwifi-mini</t>
+  </si>
+  <si>
+    <t>miwifi-nano</t>
+  </si>
+  <si>
+    <t>xiaomi_miwifi-nano</t>
+  </si>
+  <si>
+    <t>miwifi-r3</t>
+  </si>
+  <si>
+    <t>xiaomi_miwifi-r3</t>
   </si>
   <si>
     <t>phicomm-k2p</t>
@@ -85,33 +106,30 @@
     <t>xiaomi_mi-router-4c</t>
   </si>
   <si>
-    <t>miwifi-mini</t>
-  </si>
-  <si>
-    <t>mt7620</t>
-  </si>
-  <si>
-    <t>xiaomi_miwifi-mini</t>
-  </si>
-  <si>
-    <t>miwifi-nano</t>
-  </si>
-  <si>
-    <t>xiaomi_miwifi-nano</t>
-  </si>
-  <si>
-    <t>miwifi-r3</t>
-  </si>
-  <si>
-    <t>xiaomi_miwifi-r3</t>
+    <t>redmi-ac2100</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ac2100</t>
+  </si>
+  <si>
+    <t>redmi-ax6s</t>
+  </si>
+  <si>
+    <t>mediatek</t>
+  </si>
+  <si>
+    <t>mt7622</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ax6s</t>
   </si>
   <si>
     <t>xiaomi-3g</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>xiaomi_mi-router-3g</t>
   </si>
   <si>
@@ -149,27 +167,6 @@
   </si>
   <si>
     <t>xiaomi_mi-router-cr6609</t>
-  </si>
-  <si>
-    <t>redmi-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi_redmi-router-ac2100</t>
-  </si>
-  <si>
-    <t>redmi-ax6s</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>mediatek</t>
-  </si>
-  <si>
-    <t>mt7622</t>
-  </si>
-  <si>
-    <t>xiaomi_redmi-router-ax6s</t>
   </si>
 </sst>
 </file>
@@ -371,13 +368,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1042,16 +1039,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,7 +1437,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1504,76 +1501,76 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>6</v>
@@ -1582,15 +1579,15 @@
         <v>7</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>6</v>
@@ -1599,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>25</v>
@@ -1616,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>27</v>
@@ -1633,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>29</v>
@@ -1650,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>32</v>
@@ -1664,18 +1661,18 @@
         <v>31</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>31</v>
@@ -1684,32 +1681,32 @@
         <v>7</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>38</v>
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>31</v>
@@ -1718,15 +1715,15 @@
         <v>7</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>31</v>
@@ -1735,15 +1732,15 @@
         <v>7</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>31</v>
@@ -1752,50 +1749,50 @@
         <v>7</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>46</v>
+      <c r="D19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E20">
     <sortCondition ref="B2:B20"/>
-    <sortCondition ref="E2:E20"/>
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/extra-files/headers.xlsx
+++ b/extra-files/headers.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10610"/>
+    <workbookView windowWidth="20750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -31,25 +44,199 @@
     <t>device</t>
   </si>
   <si>
+    <t>glinet-mt1300</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ramips</t>
+  </si>
+  <si>
+    <t>mt7621</t>
+  </si>
+  <si>
+    <t>glinet_gl-mt1300</t>
+  </si>
+  <si>
+    <t>glinet-mt300n-v2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>mt76x8</t>
+  </si>
+  <si>
+    <t>glinet_gl-mt300n-v2</t>
+  </si>
+  <si>
     <t>glinet-microuter-n300</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ramips</t>
-  </si>
-  <si>
-    <t>mt76x8</t>
-  </si>
-  <si>
     <t>glinet_microuter-n300</t>
   </si>
   <si>
-    <t>glinet-mt300n-v2</t>
-  </si>
-  <si>
-    <t>glinet_gl-mt300n-v2</t>
+    <t>h3c-magic-nx30-pro</t>
+  </si>
+  <si>
+    <t>mediatek</t>
+  </si>
+  <si>
+    <t>filogic</t>
+  </si>
+  <si>
+    <t>h3c_magic-nx30-pro</t>
+  </si>
+  <si>
+    <t>hiwifi-hc5962</t>
+  </si>
+  <si>
+    <t>hiwifi_hc5962</t>
+  </si>
+  <si>
+    <t>phicomm-k2p</t>
+  </si>
+  <si>
+    <t>phicomm_k2p</t>
+  </si>
+  <si>
+    <t>phicomm-k3</t>
+  </si>
+  <si>
+    <t>bcm53xx</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>phicomm_k3</t>
+  </si>
+  <si>
+    <t>qihoo-360t7</t>
+  </si>
+  <si>
+    <t>qihoo_360t7</t>
+  </si>
+  <si>
+    <t>qihoo-c301</t>
+  </si>
+  <si>
+    <t>ath79</t>
+  </si>
+  <si>
+    <t>qihoo_c301</t>
+  </si>
+  <si>
+    <t>tenda-ac9</t>
+  </si>
+  <si>
+    <t>tenda_ac9</t>
+  </si>
+  <si>
+    <t>xiaomi-ax3600</t>
+  </si>
+  <si>
+    <t>ipq807x</t>
+  </si>
+  <si>
+    <t>xiaomi_ax3600</t>
+  </si>
+  <si>
+    <t>xiaomi-ax9000</t>
+  </si>
+  <si>
+    <t>xiaomi_ax9000</t>
+  </si>
+  <si>
+    <t>xiaomi-3g</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-3g</t>
+  </si>
+  <si>
+    <t>xiaomi-3g-v2</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-3g-v2</t>
+  </si>
+  <si>
+    <t>xiaomi-3-pro</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-3-pro</t>
+  </si>
+  <si>
+    <t>xiaomi-4</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4</t>
+  </si>
+  <si>
+    <t>xiaomi-4a-100m</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4a-100m</t>
+  </si>
+  <si>
+    <t>xiaomi-4a-gigabit</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4a-gigabit</t>
+  </si>
+  <si>
+    <t>xiaomi-4c</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4c</t>
+  </si>
+  <si>
+    <t>xiaomi-ac2100</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-ac2100</t>
+  </si>
+  <si>
+    <t>xiaomi-cr6606</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-cr6606</t>
+  </si>
+  <si>
+    <t>xiaomi-cr6608</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-cr6608</t>
+  </si>
+  <si>
+    <t>xiaomi-cr6609</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-cr6609</t>
+  </si>
+  <si>
+    <t>xiaomi-wr30u-112m-nmbm</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-wr30u-112m-nmbm</t>
+  </si>
+  <si>
+    <t>xiaomi-wr30u-stock</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-wr30u-stock</t>
+  </si>
+  <si>
+    <t>xiaomi-wr30u-ubootmod</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-wr30u-ubootmod</t>
+  </si>
+  <si>
+    <t>miwifi-3c</t>
+  </si>
+  <si>
+    <t>xiaomi_miwifi-3c</t>
   </si>
   <si>
     <t>miwifi-mini</t>
@@ -67,112 +254,43 @@
     <t>xiaomi_miwifi-nano</t>
   </si>
   <si>
-    <t>miwifi-r3</t>
-  </si>
-  <si>
-    <t>xiaomi_miwifi-r3</t>
-  </si>
-  <si>
-    <t>phicomm-k2p</t>
-  </si>
-  <si>
-    <t>mt7621</t>
-  </si>
-  <si>
-    <t>phicomm_k2p</t>
-  </si>
-  <si>
-    <t>xiaomi-3g-v2</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-3g-v2</t>
-  </si>
-  <si>
-    <t>xiaomi-4a-100m</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-4a-100m</t>
-  </si>
-  <si>
-    <t>xiaomi-4a-gigabit</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-4a-gigabit</t>
-  </si>
-  <si>
-    <t>xiaomi-4c</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-4c</t>
-  </si>
-  <si>
     <t>redmi-ac2100</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>xiaomi_redmi-router-ac2100</t>
   </si>
   <si>
+    <t>xiaomi-ax6000-stock</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ax6000-stock</t>
+  </si>
+  <si>
+    <t>xiaomi-ax6000-ubootmod</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ax6000-ubootmod</t>
+  </si>
+  <si>
     <t>redmi-ax6s</t>
   </si>
   <si>
-    <t>mediatek</t>
-  </si>
-  <si>
     <t>mt7622</t>
   </si>
   <si>
     <t>xiaomi_redmi-router-ax6s</t>
   </si>
   <si>
-    <t>xiaomi-3g</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-3g</t>
-  </si>
-  <si>
-    <t>xiaomi-3-pro</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-3-pro</t>
-  </si>
-  <si>
-    <t>xiaomi-4</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-4</t>
-  </si>
-  <si>
-    <t>xiaomi-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi-cr6606</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-cr6606</t>
-  </si>
-  <si>
-    <t>xiaomi-cr6608</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-cr6608</t>
-  </si>
-  <si>
-    <t>xiaomi-cr6609</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-cr6609</t>
+    <t>youhua-wr1200js</t>
+  </si>
+  <si>
+    <t>youhua_wr1200js</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -208,34 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -252,6 +342,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -261,41 +390,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,13 +443,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +491,98 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -385,43 +593,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,121 +629,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,21 +860,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -791,6 +888,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,152 +959,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1006,100 +1118,94 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1434,19 +1540,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="26.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="9.50833333333333" customWidth="1"/>
     <col min="3" max="3" width="12.5083333333333" customWidth="1"/>
     <col min="4" max="4" width="13.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="27.8416666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.675" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
@@ -1473,326 +1579,581 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="E18" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="D21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="12" t="s">
+      <c r="E22" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="D25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="E32" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A35" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>50</v>
+      <c r="E35" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E20">
-    <sortCondition ref="B2:B20"/>
-    <sortCondition ref="A2:A20"/>
+  <sortState ref="A2:E35">
+    <sortCondition ref="E2:E35"/>
+    <sortCondition ref="D2:D35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/extra-files/headers.xlsx
+++ b/extra-files/headers.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -44,27 +44,219 @@
     <t>device</t>
   </si>
   <si>
+    <t>qihoo-c301</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ath79</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>qihoo_c301</t>
+  </si>
+  <si>
+    <t>phicomm-k3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>bcm53xx</t>
+  </si>
+  <si>
+    <t>phicomm_k3</t>
+  </si>
+  <si>
+    <t>tenda-ac9</t>
+  </si>
+  <si>
+    <t>tenda_ac9</t>
+  </si>
+  <si>
+    <t>xiaomi-ax3600</t>
+  </si>
+  <si>
+    <t>ipq807x</t>
+  </si>
+  <si>
+    <t>xiaomi_ax3600</t>
+  </si>
+  <si>
+    <t>xiaomi-ax9000</t>
+  </si>
+  <si>
+    <t>xiaomi_ax9000</t>
+  </si>
+  <si>
+    <t>h3c-magic-nx30-pro</t>
+  </si>
+  <si>
+    <t>mediatek</t>
+  </si>
+  <si>
+    <t>filogic</t>
+  </si>
+  <si>
+    <t>h3c_magic-nx30-pro</t>
+  </si>
+  <si>
+    <t>qihoo-360t7</t>
+  </si>
+  <si>
+    <t>qihoo_360t7</t>
+  </si>
+  <si>
+    <t>xiaomi-wr30u-112m-nmbm</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-wr30u-112m-nmbm</t>
+  </si>
+  <si>
+    <t>xiaomi-wr30u-stock</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-wr30u-stock</t>
+  </si>
+  <si>
+    <t>xiaomi-wr30u-ubootmod</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-wr30u-ubootmod</t>
+  </si>
+  <si>
+    <t>xiaomi-ax6000-stock</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ax6000-stock</t>
+  </si>
+  <si>
+    <t>xiaomi-ax6000-ubootmod</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ax6000-ubootmod</t>
+  </si>
+  <si>
+    <t>redmi-ax6s</t>
+  </si>
+  <si>
+    <t>mt7622</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ax6s</t>
+  </si>
+  <si>
+    <t>miwifi-mini</t>
+  </si>
+  <si>
+    <t>ramips</t>
+  </si>
+  <si>
+    <t>mt7620</t>
+  </si>
+  <si>
+    <t>xiaomi_miwifi-mini</t>
+  </si>
+  <si>
     <t>glinet-mt1300</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ramips</t>
-  </si>
-  <si>
     <t>mt7621</t>
   </si>
   <si>
     <t>glinet_gl-mt1300</t>
   </si>
   <si>
+    <t>hiwifi-hc5962</t>
+  </si>
+  <si>
+    <t>hiwifi_hc5962</t>
+  </si>
+  <si>
+    <t>phicomm-k2p</t>
+  </si>
+  <si>
+    <t>phicomm_k2p</t>
+  </si>
+  <si>
+    <t>xiaomi-3g</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-3g</t>
+  </si>
+  <si>
+    <t>xiaomi-3g-v2</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-3g-v2</t>
+  </si>
+  <si>
+    <t>xiaomi-3-pro</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-3-pro</t>
+  </si>
+  <si>
+    <t>xiaomi-4</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4</t>
+  </si>
+  <si>
+    <t>xiaomi-4a-gigabit</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4a-gigabit</t>
+  </si>
+  <si>
+    <t>xiaomi-4a-gigabit-v2</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-4a-gigabit-v2</t>
+  </si>
+  <si>
+    <t>xiaomi-ac2100</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-ac2100</t>
+  </si>
+  <si>
+    <t>xiaomi-cr6606</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-cr6606</t>
+  </si>
+  <si>
+    <t>xiaomi-cr6608</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-cr6608</t>
+  </si>
+  <si>
+    <t>xiaomi-cr6609</t>
+  </si>
+  <si>
+    <t>xiaomi_mi-router-cr6609</t>
+  </si>
+  <si>
+    <t>redmi-ac2100</t>
+  </si>
+  <si>
+    <t>xiaomi_redmi-router-ac2100</t>
+  </si>
+  <si>
+    <t>youhua-wr1200js</t>
+  </si>
+  <si>
+    <t>youhua_wr1200js</t>
+  </si>
+  <si>
     <t>glinet-mt300n-v2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>mt76x8</t>
   </si>
   <si>
@@ -77,214 +269,28 @@
     <t>glinet_microuter-n300</t>
   </si>
   <si>
-    <t>h3c-magic-nx30-pro</t>
-  </si>
-  <si>
-    <t>mediatek</t>
-  </si>
-  <si>
-    <t>filogic</t>
-  </si>
-  <si>
-    <t>h3c_magic-nx30-pro</t>
-  </si>
-  <si>
-    <t>hiwifi-hc5962</t>
-  </si>
-  <si>
-    <t>hiwifi_hc5962</t>
-  </si>
-  <si>
-    <t>phicomm-k2p</t>
-  </si>
-  <si>
-    <t>phicomm_k2p</t>
-  </si>
-  <si>
-    <t>phicomm-k3</t>
-  </si>
-  <si>
-    <t>bcm53xx</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>phicomm_k3</t>
-  </si>
-  <si>
-    <t>qihoo-360t7</t>
-  </si>
-  <si>
-    <t>qihoo_360t7</t>
-  </si>
-  <si>
-    <t>qihoo-c301</t>
-  </si>
-  <si>
-    <t>ath79</t>
-  </si>
-  <si>
-    <t>qihoo_c301</t>
-  </si>
-  <si>
-    <t>tenda-ac9</t>
-  </si>
-  <si>
-    <t>tenda_ac9</t>
-  </si>
-  <si>
-    <t>xiaomi-ax3600</t>
-  </si>
-  <si>
-    <t>ipq807x</t>
-  </si>
-  <si>
-    <t>xiaomi_ax3600</t>
-  </si>
-  <si>
-    <t>xiaomi-ax9000</t>
-  </si>
-  <si>
-    <t>xiaomi_ax9000</t>
-  </si>
-  <si>
-    <t>xiaomi-3g</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-3g</t>
-  </si>
-  <si>
-    <t>xiaomi-3g-v2</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-3g-v2</t>
-  </si>
-  <si>
-    <t>xiaomi-3-pro</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-3-pro</t>
-  </si>
-  <si>
-    <t>xiaomi-4</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-4</t>
-  </si>
-  <si>
     <t>xiaomi-4a-100m</t>
   </si>
   <si>
     <t>xiaomi_mi-router-4a-100m</t>
   </si>
   <si>
-    <t>xiaomi-4a-gigabit</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-4a-gigabit</t>
-  </si>
-  <si>
     <t>xiaomi-4c</t>
   </si>
   <si>
     <t>xiaomi_mi-router-4c</t>
   </si>
   <si>
-    <t>xiaomi-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi-cr6606</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-cr6606</t>
-  </si>
-  <si>
-    <t>xiaomi-cr6608</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-cr6608</t>
-  </si>
-  <si>
-    <t>xiaomi-cr6609</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-cr6609</t>
-  </si>
-  <si>
-    <t>xiaomi-wr30u-112m-nmbm</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-wr30u-112m-nmbm</t>
-  </si>
-  <si>
-    <t>xiaomi-wr30u-stock</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-wr30u-stock</t>
-  </si>
-  <si>
-    <t>xiaomi-wr30u-ubootmod</t>
-  </si>
-  <si>
-    <t>xiaomi_mi-router-wr30u-ubootmod</t>
-  </si>
-  <si>
     <t>miwifi-3c</t>
   </si>
   <si>
     <t>xiaomi_miwifi-3c</t>
   </si>
   <si>
-    <t>miwifi-mini</t>
-  </si>
-  <si>
-    <t>mt7620</t>
-  </si>
-  <si>
-    <t>xiaomi_miwifi-mini</t>
-  </si>
-  <si>
     <t>miwifi-nano</t>
   </si>
   <si>
     <t>xiaomi_miwifi-nano</t>
-  </si>
-  <si>
-    <t>redmi-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi_redmi-router-ac2100</t>
-  </si>
-  <si>
-    <t>xiaomi-ax6000-stock</t>
-  </si>
-  <si>
-    <t>xiaomi_redmi-router-ax6000-stock</t>
-  </si>
-  <si>
-    <t>xiaomi-ax6000-ubootmod</t>
-  </si>
-  <si>
-    <t>xiaomi_redmi-router-ax6000-ubootmod</t>
-  </si>
-  <si>
-    <t>redmi-ax6s</t>
-  </si>
-  <si>
-    <t>mt7622</t>
-  </si>
-  <si>
-    <t>xiaomi_redmi-router-ax6s</t>
-  </si>
-  <si>
-    <t>youhua-wr1200js</t>
-  </si>
-  <si>
-    <t>youhua_wr1200js</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +992,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,16 +1016,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1022,89 +1034,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1133,13 +1145,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,10 +1160,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,10 +1552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1576,7 +1588,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1593,14 +1605,14 @@
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>13</v>
@@ -1610,14 +1622,14 @@
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
+      <c r="B4" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>15</v>
@@ -1628,532 +1640,550 @@
         <v>16</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="C22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>59</v>
+      <c r="E23" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>61</v>
+      <c r="C24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="C30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="C31" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="C32" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="C33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="E33" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="C34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="C35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A35" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>85</v>
+      <c r="C36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E35">
-    <sortCondition ref="E2:E35"/>
-    <sortCondition ref="D2:D35"/>
+  <sortState ref="A2:E36">
+    <sortCondition ref="C2:C36"/>
+    <sortCondition ref="D2:D36"/>
+    <sortCondition ref="E2:E36"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/extra-files/headers.xlsx
+++ b/extra-files/headers.xlsx
@@ -47,22 +47,22 @@
     <t>qihoo-c301</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ath79</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>qihoo_c301</t>
+  </si>
+  <si>
+    <t>phicomm-k3</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>ath79</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>qihoo_c301</t>
-  </si>
-  <si>
-    <t>phicomm-k3</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>bcm53xx</t>
@@ -313,7 +313,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -476,7 +476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,24 +485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -688,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -701,34 +689,34 @@
         <color rgb="FF5A5A5A"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE6E6E6"/>
       </right>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFE6E6E6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE6E6E6"/>
       </right>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFE6E6E6"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE6E6E6"/>
       </left>
       <right style="thin">
         <color rgb="FF5A5A5A"/>
@@ -736,45 +724,6 @@
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE6E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFE6E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE6E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FFE6E6E6"/>
       </bottom>
@@ -992,7 +941,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,119 +953,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,46 +1076,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1554,8 +1485,8 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1563,7 +1494,7 @@
     <col min="1" max="1" width="26.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="9.50833333333333" customWidth="1"/>
     <col min="3" max="3" width="12.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.8416666666667" customWidth="1"/>
     <col min="5" max="5" width="37.675" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1588,7 +1519,7 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1602,580 +1533,580 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="9" t="s">
         <v>87</v>
       </c>
     </row>
